--- a/Curse Strengths.xlsx
+++ b/Curse Strengths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\willu\Documents\GitHub\wills-wacky-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772E331-60D3-420E-802F-4A35A335D883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF4912-A371-4933-A048-443C90688042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Components" sheetId="1" r:id="rId1"/>
@@ -1115,6 +1115,73 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1140,91 +1207,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1312,6 +1294,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1326,12 +1324,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1348,19 +1348,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I53" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I53" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Main Component" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Subcomponent" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Path" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Main Component" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Subcomponent" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Path" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Main Component]]&amp;Table1[[#This Row],[Subcomponent]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{D71E2F3F-AE94-42B9-A7F9-7913E97CA39B}" name="Subcomponent Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B2E69AAF-B2B4-4818-8DF3-6D3B60A40FAF}" name="Common Curse" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A7658D68-9EE6-4D8F-A444-4E71434508AA}" name="Uncommon Curse" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{6D5CFCB2-D2B3-4BBE-B70D-3366B2CEA3CA}" name="Rare Curse" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D71E2F3F-AE94-42B9-A7F9-7913E97CA39B}" name="Subcomponent Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B2E69AAF-B2B4-4818-8DF3-6D3B60A40FAF}" name="Common Curse" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A7658D68-9EE6-4D8F-A444-4E71434508AA}" name="Uncommon Curse" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6D5CFCB2-D2B3-4BBE-B70D-3366B2CEA3CA}" name="Rare Curse" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{69138D10-A232-4BA2-BA20-6E607FCFC715}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:I53"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
